--- a/mappings/D_OPCO_DDL_mapping_20250226_091949.xlsx
+++ b/mappings/D_OPCO_DDL_mapping_20250226_091949.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9420" yWindow="330" windowWidth="28800" windowHeight="11175" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="11175" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,12 +50,6 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,9 +115,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -511,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -551,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EBI_DEV_DB.LND_CORE.D_DP_OPCO</t>
+          <t>EBI_DEV_DB.EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
     </row>
@@ -563,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>ref</t>
         </is>
       </c>
     </row>
@@ -575,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LND_CORE</t>
+          <t>EDW</t>
         </is>
       </c>
     </row>
@@ -631,9 +625,14 @@
           <t>OPCO_ID</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>'1'</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EDW.BI_D_OPCO_VW</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>OPCO_ID</t>
         </is>
       </c>
     </row>
@@ -648,7 +647,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -668,7 +667,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,7 +687,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -708,7 +707,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -728,7 +727,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -748,7 +747,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -768,7 +767,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -788,7 +787,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -808,7 +807,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -828,7 +827,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -848,7 +847,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LND_CORE.D_DP_OPCO</t>
+          <t>EDW.BI_D_OPCO_VW</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -866,9 +865,14 @@
           <t>TBA_ACTIVE_FLG</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>'Y'</t>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EDW.BI_D_OPCO_VW</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>TBA_ACTIVE_FLG</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1018,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1249,7 +1253,7 @@
           <t>USER</t>
         </is>
       </c>
-      <c r="B19" s="9" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>shivam.garg@cbrands.com</t>
         </is>

--- a/mappings/D_OPCO_DDL_mapping_20250226_091949.xlsx
+++ b/mappings/D_OPCO_DDL_mapping_20250226_091949.xlsx
@@ -995,18 +995,18 @@
     <mergeCell ref="B35:F35"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="B4 B27:B31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B4 B27:B31" showErrorMessage="0" showDropDown="0" showInputMessage="0" allowBlank="1" type="list">
       <formula1>"source,ref"</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B6" showErrorMessage="0" showDropDown="0" showInputMessage="0" allowBlank="1" type="list">
       <formula1>"incremental,truncate_load"</formula1>
     </dataValidation>
-    <dataValidation sqref="A27:A31" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="A27:A31" showErrorMessage="0" showDropDown="0" showInputMessage="0" allowBlank="1" type="list">
       <formula1>"LEFT,INNER"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1291,7 +1291,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B3" showErrorMessage="0" showDropDown="0" showInputMessage="0" allowBlank="1" type="list">
       <formula1>"DATASET DEPENDENCY,CRON,SNS"</formula1>
     </dataValidation>
   </dataValidations>
